--- a/va_facility_data_2025-02-20/Venango County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Venango%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Venango County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Venango%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc3c87f7bc14442349a274796a4526e29"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6edcce3e7734d5fbf19cec0fe745a4c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77fd9d415ebd4c2c863f36aca483d855"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc26cdd7e40534817a25037718cb4820f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb281e13d0705491c8ddf1b28c72d0a79"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R57a92704611e4177ba646bf3ca5ea38f"/>
   </x:sheets>
 </x:workbook>
 </file>
